--- a/example/Sample_Bar_template_v2023_1_beta.xlsx
+++ b/example/Sample_Bar_template_v2023_1_beta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8B31DD5-AAD2-48EA-8246-E62627D4AE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F776DCDC-90B3-4C17-911B-695030544E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="795" windowWidth="48555" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="495" windowWidth="48555" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -803,26 +803,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
@@ -875,6 +855,26 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1316,11 +1316,11 @@
   </sheetPr>
   <dimension ref="A1:V1662"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1792,141 +1792,144 @@
       </c>
     </row>
     <row r="6" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="33">
+      <c r="G6" s="33">
         <v>310704</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="33" t="b">
+      <c r="I6" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="33" t="b">
+      <c r="J6" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="33">
+      <c r="K6" s="33">
         <v>180</v>
       </c>
-      <c r="K6" s="33">
+      <c r="L6" s="33">
         <v>0.25</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="33">
+      <c r="T6" s="33">
         <v>125</v>
       </c>
-      <c r="T6" s="34">
+      <c r="U6" s="34">
         <v>1.2</v>
       </c>
-      <c r="U6" s="35">
+      <c r="V6" s="35">
         <f ca="1">TODAY()</f>
         <v>44932</v>
       </c>
     </row>
     <row r="7" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="33">
+      <c r="G7" s="33">
         <v>310704</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="H7" s="33" t="b">
-        <v>1</v>
       </c>
       <c r="I7" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="33">
         <v>20</v>
       </c>
-      <c r="K7" s="33">
+      <c r="L7" s="33">
         <v>0.25</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>2</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="S7" s="33">
+      <c r="T7" s="33">
         <v>10</v>
       </c>
-      <c r="T7" s="34">
+      <c r="U7" s="34">
         <v>1.5</v>
       </c>
-      <c r="U7" s="35">
+      <c r="V7" s="35">
         <f ca="1">TODAY()</f>
         <v>44932</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>3</v>
-      </c>
       <c r="B8" s="18"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -38530,14 +38533,14 @@
   <conditionalFormatting sqref="D8:D193">
     <cfRule type="duplicateValues" dxfId="10" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7">
-    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
+  <conditionalFormatting sqref="C6:C7">
+    <cfRule type="duplicateValues" dxfId="9" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C7">
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="duplicateValues" dxfId="8" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O573:O1662 M233:N1662 C8:E1662 B6:D7" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O573:O1662 M233:N1662 C8:E1662 C6:E7" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>3</formula1>
       <formula2>30</formula2>
     </dataValidation>
@@ -38547,42 +38550,42 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K573:K1662 I233:J1662" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="in mm" sqref="L233:P1662 L8:L232 K6:K7" xr:uid="{00000000-0002-0000-0100-000005000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="in mm" sqref="L233:P1662 L8:L232 L6:L7" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Angle in degrees between -90,180" sqref="K8:K1662 J6:J7" xr:uid="{00000000-0002-0000-0100-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Angle in degrees between -90,180" sqref="K8:K1662 K6:K7" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>-90</formula1>
       <formula2>180</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V8:V1662 U6:U7" xr:uid="{00000000-0002-0000-0100-000008000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V8:V1662 V6:V7" xr:uid="{00000000-0002-0000-0100-000008000000}">
       <formula1>43101</formula1>
       <formula2>401769</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="in nm" sqref="T8:T1662 S6:S7" xr:uid="{00000000-0002-0000-0100-000009000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="in nm" sqref="T8:T1662 T6:T7" xr:uid="{00000000-0002-0000-0100-000009000000}">
       <formula1>0</formula1>
       <formula2>50000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O572 N6:N7" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O572 O6:O7" xr:uid="{00000000-0002-0000-0100-00000B000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K572 J6:J7" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K572 K6:K7" xr:uid="{00000000-0002-0000-0100-00000D000000}">
       <formula1>-90</formula1>
       <formula2>180</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="institution appreviation between 3 and 8 characters long" sqref="F8:F232 E6:E7" xr:uid="{5517B74C-C722-45B0-B242-9B185174D690}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="institution appreviation between 3 and 8 characters long" sqref="F8:F232 F6:F7" xr:uid="{5517B74C-C722-45B0-B242-9B185174D690}">
       <formula1>3</formula1>
       <formula2>8</formula2>
     </dataValidation>
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="6 digit SAF for this measurement.  This must match the approved SAF for this beamtime" sqref="G194:G232" xr:uid="{187A9065-3EC5-4DE5-8899-78DDABAD5B0D}">
       <formula1>6</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="a number and a Letter indicating the location of the sample on the bar" sqref="H8:H232 G6:G7" xr:uid="{75ED674D-AC98-4206-9BE1-3A0218C0F854}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="a number and a Letter indicating the location of the sample on the bar" sqref="H8:H232 H6:H7" xr:uid="{75ED674D-AC98-4206-9BE1-3A0218C0F854}">
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="true or false" sqref="I8:J232 H6:I7" xr:uid="{CFAFED4D-BCB2-4ACE-B9BE-7F7EFEDDC93D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="true or false" sqref="I8:J232 I6:J7" xr:uid="{CFAFED4D-BCB2-4ACE-B9BE-7F7EFEDDC93D}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F573:F1662" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -38591,7 +38594,7 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F233:F572" xr:uid="{00000000-0002-0000-0100-00000A000000}">
       <formula1>AND(OR(LEN(F233)=9,LEN(F233)=8),OR(EXACT(LEFT(F233,3),"GU-"),EXACT(LEFT(F233,2),"C-"),EXACT(LEFT(F233,3),"PU-")))</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="6 digit proposal number for this measurement.  This must match the approved proposal for this beamtime" sqref="G8:G193 F6:F7" xr:uid="{3BE3A1C7-2CEA-4D16-BB9D-2EE3E60B3E73}">
+    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="6 digit proposal number for this measurement.  This must match the approved proposal for this beamtime" sqref="G8:G193 G6:G7" xr:uid="{3BE3A1C7-2CEA-4D16-BB9D-2EE3E60B3E73}">
       <formula1>6</formula1>
     </dataValidation>
   </dataValidations>
@@ -38610,8 +38613,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:V688"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42424,42 +42427,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:N1 J6:N1048576">
-    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>"rsoxs"=$D1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:M1 Q1 H1:I1 H6:I1048576 Q6:Q1048576 L6:M1048576">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>"nexafs"=$D1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 G1:K1 P1 R1:T1 R6:T1048576 P6:P1048576 G6:K1048576 N6:N1048576">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>"spiral"=$D1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:T1048576">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>AND(ISBLANK($R6),NOT(ISBLANK($B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F6:F1048576">
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>OR($D1="rsoxs", $D1="nexafs")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E1004">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>NOT(ISBLANK($B6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1048576:T1048576">
-    <cfRule type="expression" dxfId="3" priority="64">
+    <cfRule type="expression" dxfId="1" priority="64">
       <formula>AND(ISBLANK(#REF!),NOT(ISBLANK($B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:T1">
-    <cfRule type="expression" dxfId="2" priority="89">
+    <cfRule type="expression" dxfId="0" priority="89">
       <formula>AND(ISBLANK($R1),NOT(ISBLANK($B6)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/example/Sample_Bar_template_v2023_1_beta.xlsx
+++ b/example/Sample_Bar_template_v2023_1_beta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F776DCDC-90B3-4C17-911B-695030544E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32166031-004B-4102-A380-7C47CA048592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="495" windowWidth="48555" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37590" yWindow="-4000" windowWidth="29730" windowHeight="14060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -62,12 +62,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="226">
   <si>
     <t>Do not change the format of the Acquisitions or Samples tab.Other tabs can be added and edited as needed.</t>
-  </si>
-  <si>
-    <t>When you save a sheet from bluesky, it will only contain the Samples and Acquisitions tab, with no instructions, so save this file somewhere for your reference</t>
   </si>
   <si>
     <t>It is fine to just produce a sheet yourself with only these sheets and no data validation, and you are encouraged to do that if you are having problems</t>
@@ -80,18 +77,6 @@
   </si>
   <si>
     <t>1.) Enter all sample info in the "Bar" tab - be as thurough as you are able and enter values for ALL bold columns.  This information will follow the sample data, and will make analysis easier!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the information will be copied over into the "Samples" sheet</t>
-  </si>
-  <si>
-    <t>2.) in the "Samples" sheet DELETE all extraneous rows that do not contain samples, or pull down to ensure all samples are represented</t>
-  </si>
-  <si>
-    <t>3.) Enter acquisitions in the "Acquisitions" tab, data validation is in place so you must chose a sample which you listed in the Bar tab and valid configurations and plans</t>
-  </si>
-  <si>
-    <t>4.) delete all rows below the end of your data to ensure loading works correctly</t>
   </si>
   <si>
     <t>sample_id</t>
@@ -183,9 +168,6 @@
   </si>
   <si>
     <t>optional density of sample for absorption quantification</t>
-  </si>
-  <si>
-    <t>optional</t>
   </si>
   <si>
     <t>configuration</t>
@@ -297,9 +279,6 @@
   </si>
   <si>
     <t>angles</t>
-  </si>
-  <si>
-    <t>unique name for this bar</t>
   </si>
   <si>
     <t>diameter</t>
@@ -423,13 +402,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">REQUIRED
-will be in file name (readable by whoever is loading and measuring samples) can </t>
-  </si>
-  <si>
-    <t>Underscores are discouraged</t>
-  </si>
-  <si>
     <t>P3HT-AN-120C</t>
   </si>
   <si>
@@ -484,12 +456,6 @@
 Incident angle where you want to collect data by default. This parameter is overwritten by acquisition plans that specify specific angles or angle ranges. </t>
   </si>
   <si>
-    <t>0 OR 25 or 90</t>
-  </si>
-  <si>
-    <t>0 degrees = normal incidence, while 20 = 20 degrees from normal incidence, -20 - 20 degrees in the other direction from normal incidence.</t>
-  </si>
-  <si>
     <t>For transmission measurements (grazing = FALSE), the angle is taken with respect to the FRONT/BACK sample normal vector. The default is 180 degrees. 
 For grazing measurements (grazing = True), specify the angle with respect to the front surface tangent.</t>
   </si>
@@ -510,15 +476,6 @@
     <t>Acquisitions</t>
   </si>
   <si>
-    <t>Must match sample_id from the prior sheet</t>
-  </si>
-  <si>
-    <t>^</t>
-  </si>
-  <si>
-    <t>Choose from SAXS, WAXS, NEXAFS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Depending on the value of this cell, unnecessary acquisition parameters will be greyed out and locked. </t>
   </si>
   <si>
@@ -534,9 +491,6 @@
     <t>Spiral</t>
   </si>
   <si>
-    <t>Determines which detector is used.</t>
-  </si>
-  <si>
     <t>Determines which order scans will be run, lowest value first.</t>
   </si>
   <si>
@@ -549,19 +503,7 @@
     <t>Must match an entry in the lookup table (see Notes), OR be a single energy OR be a list of energies within hard brackets</t>
   </si>
   <si>
-    <t>c OR 285 OR [270,280,290,400]</t>
-  </si>
-  <si>
-    <t>Current Lookup table entries are carbon edge 'c', oxygen edge 'o', fluorine. etc. Or see [LINK]</t>
-  </si>
-  <si>
-    <t>How many images you want per energy scan (default 'full' which is 112 images, or specify the exact number you want) or how fast you want to run in ev/sec NEXAFS (default "normal" or 0.2), radius of the spiral (default 1.8)</t>
-  </si>
-  <si>
     <t>Parameter</t>
-  </si>
-  <si>
-    <t>Integer between 0 and 100</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -598,6 +540,228 @@
   </si>
   <si>
     <t>C60</t>
+  </si>
+  <si>
+    <t>REQUIRED
+unique name for this bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> all bar cells should share this exact name</t>
+  </si>
+  <si>
+    <t>REQUIRED
+will be in file name (readable by whoever is loading and measuring samples)</t>
+  </si>
+  <si>
+    <t>plain english is encouraged</t>
+  </si>
+  <si>
+    <t>this is what will be referenced in the acquisitions, so keep it simple</t>
+  </si>
+  <si>
+    <t>any characters allowed on a linux filesystem</t>
+  </si>
+  <si>
+    <t>be consistent see wiki for orientation help</t>
+  </si>
+  <si>
+    <t>program will present you with this when you are identifying the samples in an image</t>
+  </si>
+  <si>
+    <t>(transmission) 0 degrees = normal incidence, while 20 = 20 degrees from normal incidence, -20 - 20 degrees in the other direction from normal incidence.</t>
+  </si>
+  <si>
+    <t>(transmission) -180 (from back of sample)
+(grazing) 20 (20 degrees from grazing)</t>
+  </si>
+  <si>
+    <t>study of x effect on y</t>
+  </si>
+  <si>
+    <t>number between 0 and 100</t>
+  </si>
+  <si>
+    <t>optional sorting method for queue creation</t>
+  </si>
+  <si>
+    <t>this is a nice place to explain in english what scans you want to run, which can later be translated into the acquisition tab</t>
+  </si>
+  <si>
+    <t>useful for seaching for similar samples taken previously</t>
+  </si>
+  <si>
+    <t>can be imported directly in QANT for Kramers Kronig</t>
+  </si>
+  <si>
+    <t>optional date when sample was created</t>
+  </si>
+  <si>
+    <t>Must exactly match a sample_id from the Bar sheet</t>
+  </si>
+  <si>
+    <t>Choose from WAXSNEXAFS, WAXS, SAXS, SAXSNEXAFS, SAXS_liquid, WAXS_liquid</t>
+  </si>
+  <si>
+    <t>Determines which detector is used / slits</t>
+  </si>
+  <si>
+    <t>Normal way to sort queue steps</t>
+  </si>
+  <si>
+    <t>carbon OR 285 OR [270,280,290,400]</t>
+  </si>
+  <si>
+    <t>Current Lookup table entries are given here [LINK]</t>
+  </si>
+  <si>
+    <t>the ratio of resolution / speed between the different regions defined by the "edge" parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,1,5 -&gt; go through the first and last region 5 times as fast (NEXAFS) or have the energy steps 5 times more spread out (RSoXS) than the central region </t>
+  </si>
+  <si>
+    <t>must match the number of regions defined by ratios. (length of ratios -1)  for built in ratio tables, look up the length needed</t>
+  </si>
+  <si>
+    <t>this is only a estimate, the threshold energies will always be favored.  See the examples in the jupyter notebook, and run dry runs there to see actual numbers of exposures and experimental times</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>How many steps you want per energy scan (default 'full' which is 112 images, or specify the exact number you want) or how fast you want to run in ev/sec NEXAFS (default "normal" or 0.2), radius of the spiral (default 1.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many images you want per step.  </t>
+  </si>
+  <si>
+    <t>Repeating exposures at a single step has much less overhead ~1 second than defining multiple steps at one energy ~4 seconds</t>
+  </si>
+  <si>
+    <t>5 -&gt; repeat every exposure 5 times before moving to the next energy step'</t>
+  </si>
+  <si>
+    <t>eV/sec to scan NEXAFS.</t>
+  </si>
+  <si>
+    <t>built in speeds are good starting points. 0.1 is slow (5 minutes or so for a scan)  0.3 is fast (&lt;2 minutes / scan)</t>
+  </si>
+  <si>
+    <t>how many times to sweep energy up and back down</t>
+  </si>
+  <si>
+    <t>0 -&gt; no sweeping back down</t>
+  </si>
+  <si>
+    <t>any non negative integer</t>
+  </si>
+  <si>
+    <t>diameter in mm of spiral scan extent</t>
+  </si>
+  <si>
+    <t>step size for a spiral scan</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>when specifying a polarization for a NEXAFS scan, wether the specification is relative to the sample surface or relative to the lab</t>
+  </si>
+  <si>
+    <t>in lab frame 0 is horizontal in board, 90 vertical up
+in sample frame, 0 is normal to the sample surface (minimum possible is the grazing angle of the sample), 90 is in the plane of the sample</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>single angle or list of polarization angles to take measurement at</t>
+  </si>
+  <si>
+    <t>-1 -&gt; circular
+-0.5 -&gt; circular counter clockwise
+0-180 -&gt; angle from horizontal (sample frame: out of plane) through vertical (sample frame: in plane)</t>
+  </si>
+  <si>
+    <t>angles for rotation of the sample about the vertical axis</t>
+  </si>
+  <si>
+    <t>number or list of numbers to take scans</t>
+  </si>
+  <si>
+    <t>20,30,55,70,90</t>
+  </si>
+  <si>
+    <t>for rsoxs scans, a more complex nomenclature is available to define exposures for certain energy ranges. See the notebook example or the wiki</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>exposure time(s) in seconds for rsoxs scans and spirals</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>repeat the scans above for each temperature.</t>
+  </si>
+  <si>
+    <t>wait for the temperature to reach the setpoint before starting the scans or not</t>
+  </si>
+  <si>
+    <t>the temperature ramp speed deg C / min</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1 - 100 are valid speeds</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>True/False</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>rsoxs (default), 1200, 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which grating to use for measurements </t>
+  </si>
+  <si>
+    <t>WARNING - moving gratings between measurements might result in loss of energy calibration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature(s) to move to between / during scans. </t>
+  </si>
+  <si>
+    <t>ONLY used with the TEM holder - not valid for normal sample bar</t>
+  </si>
+  <si>
+    <t>high or low range for diode measurements</t>
+  </si>
+  <si>
+    <t>high, low</t>
+  </si>
+  <si>
+    <t>high should be used in any case where saturation might be a possibility - the majority of measurements</t>
+  </si>
+  <si>
+    <t>2.) Enter acquisitions in the "Acquisitions" tab, data validation is in place so you must chose a sample which you listed in the Bar tab and valid configurations and plans</t>
+  </si>
+  <si>
+    <t>When you save a sheet from bluesky, it will only contain the Bar and Acquisitions tab, with no instructions, so save this file somewhere for your reference</t>
+  </si>
+  <si>
+    <t>accurate time estimates and breakdowns for each acquisition can be obtained using this package.</t>
+  </si>
+  <si>
+    <t>TEST your bar ahead of beamtime by using the "rsoxs_plans" package https://github.com/NSLS-II-SST/rsoxs_scans - which includes the most up to date spreadsheet sample and the same code which will be used at the beamline</t>
   </si>
 </sst>
 </file>
@@ -1231,9 +1395,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1242,7 +1408,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1252,60 +1418,56 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
+      <c r="A6" s="10" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
+      <c r="A9" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
+      <c r="A11" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{72AC511E-9DF9-4AC9-999D-0EDF72557B97}"/>
+    <hyperlink ref="A9" r:id="rId1" xr:uid="{72AC511E-9DF9-4AC9-999D-0EDF72557B97}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{A4103669-393A-411A-B58C-9DECA08BFDF8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1316,11 +1478,11 @@
   </sheetPr>
   <dimension ref="A1:V1662"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1352,79 +1514,80 @@
   <sheetData>
     <row r="1" spans="1:22" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="V1" s="24" t="s">
         <v>23</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="19" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B2" s="23" t="str">
         <f>VLOOKUP(B1,SheetRulesAndMetaData!$B7:$F28,2,FALSE)</f>
-        <v>unique name for this bar</v>
+        <v>REQUIRED
+unique name for this bar</v>
       </c>
       <c r="C2" s="23" t="str">
         <f>VLOOKUP(C1,SheetRulesAndMetaData!$B7:$F28,2,FALSE)</f>
@@ -1433,8 +1596,8 @@
       </c>
       <c r="D2" s="23" t="str">
         <f>VLOOKUP(D1,SheetRulesAndMetaData!$B7:$F28,2,FALSE)</f>
-        <v xml:space="preserve">REQUIRED
-will be in file name (readable by whoever is loading and measuring samples) can </v>
+        <v>REQUIRED
+will be in file name (readable by whoever is loading and measuring samples)</v>
       </c>
       <c r="E2" s="23" t="str">
         <f>VLOOKUP(E1,SheetRulesAndMetaData!$B7:$F28,2,FALSE)</f>
@@ -1520,16 +1683,16 @@
       </c>
       <c r="V2" s="23" t="str">
         <f>VLOOKUP(V1,SheetRulesAndMetaData!$B7:$F28,2,FALSE)</f>
-        <v>optional</v>
+        <v>optional date when sample was created</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="21" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B3" s="25" t="str">
         <f>VLOOKUP(B1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve"> all bar cells should share this exact name</v>
       </c>
       <c r="C3" s="25" t="str">
         <f>VLOOKUP(C1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
@@ -1537,11 +1700,11 @@
       </c>
       <c r="D3" s="25" t="str">
         <f>VLOOKUP(D1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
-        <v>Underscores are discouraged</v>
+        <v>plain english is encouraged</v>
       </c>
       <c r="E3" s="25" t="str">
         <f>VLOOKUP(E1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>any characters allowed on a linux filesystem</v>
       </c>
       <c r="F3" s="25" t="str">
         <f>VLOOKUP(F1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
@@ -1553,7 +1716,7 @@
       </c>
       <c r="H3" s="25" t="str">
         <f>VLOOKUP(H1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>be consistent see wiki for orientation help</v>
       </c>
       <c r="I3" s="25" t="str">
         <f>VLOOKUP(I1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
@@ -1565,7 +1728,7 @@
       </c>
       <c r="K3" s="25" t="str">
         <f>VLOOKUP(K1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
-        <v>0 degrees = normal incidence, while 20 = 20 degrees from normal incidence, -20 - 20 degrees in the other direction from normal incidence.</v>
+        <v>(transmission) 0 degrees = normal incidence, while 20 = 20 degrees from normal incidence, -20 - 20 degrees in the other direction from normal incidence.</v>
       </c>
       <c r="L3" s="25" t="str">
         <f>VLOOKUP(L1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
@@ -1581,7 +1744,7 @@
       </c>
       <c r="O3" s="25" t="str">
         <f>VLOOKUP(O1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
-        <v>Integer between 0 and 100</v>
+        <v>number between 0 and 100</v>
       </c>
       <c r="P3" s="25" t="str">
         <f>VLOOKUP(P1,SheetRulesAndMetaData!$B7:$F28,3,FALSE)</f>
@@ -1614,7 +1777,7 @@
     </row>
     <row r="4" spans="1:22" s="21" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B4" s="25" t="str">
         <f>VLOOKUP(B1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
@@ -1654,7 +1817,8 @@
       </c>
       <c r="K4" s="25" t="str">
         <f>VLOOKUP(K1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
-        <v>0 OR 25 or 90</v>
+        <v>(transmission) -180 (from back of sample)
+(grazing) 20 (20 degrees from grazing)</v>
       </c>
       <c r="L4" s="25" t="str">
         <f>VLOOKUP(L1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
@@ -1666,15 +1830,15 @@
       </c>
       <c r="N4" s="25" t="str">
         <f>VLOOKUP(N1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
-        <v>I'm doing science</v>
+        <v>study of x effect on y</v>
       </c>
       <c r="O4" s="25">
         <f>VLOOKUP(O1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="P4" s="25" t="str">
+      <c r="P4" s="25">
         <f>VLOOKUP(P1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
-        <v>I'd like to start by calling into question the whole concept of a polymer.  What do we really know about these things??</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="25" t="str">
         <f>VLOOKUP(Q1,SheetRulesAndMetaData!$B7:$F28,4,FALSE)</f>
@@ -1703,15 +1867,15 @@
     </row>
     <row r="5" spans="1:22" s="21" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B5" s="25">
         <f>VLOOKUP(B1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="25" t="str">
         <f>VLOOKUP(C1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
-        <v>0</v>
+        <v>this is what will be referenced in the acquisitions, so keep it simple</v>
       </c>
       <c r="D5" s="25">
         <f>VLOOKUP(D1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
@@ -1729,9 +1893,9 @@
         <f>VLOOKUP(G1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="25" t="str">
         <f>VLOOKUP(H1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
-        <v>0</v>
+        <v>program will present you with this when you are identifying the samples in an image</v>
       </c>
       <c r="I5" s="25">
         <f>VLOOKUP(I1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
@@ -1758,33 +1922,33 @@
         <f>VLOOKUP(N1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="25" t="str">
         <f>VLOOKUP(O1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="25">
+        <v>optional sorting method for queue creation</v>
+      </c>
+      <c r="P5" s="25" t="str">
         <f>VLOOKUP(P1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
-        <v>0</v>
+        <v>this is a nice place to explain in english what scans you want to run, which can later be translated into the acquisition tab</v>
       </c>
       <c r="Q5" s="25">
         <f>VLOOKUP(Q1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="25" t="str">
         <f>VLOOKUP(R1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="25">
+        <v>useful for seaching for similar samples taken previously</v>
+      </c>
+      <c r="S5" s="25" t="str">
         <f>VLOOKUP(S1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
-        <v>0</v>
+        <v>can be imported directly in QANT for Kramers Kronig</v>
       </c>
       <c r="T5" s="25">
         <f>VLOOKUP(T1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5" s="25" t="str">
         <f>VLOOKUP(U1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
-        <v>0</v>
+        <v>can be imported directly in QANT for Kramers Kronig</v>
       </c>
       <c r="V5" s="25">
         <f>VLOOKUP(V1,SheetRulesAndMetaData!$B7:$F28,5,FALSE)</f>
@@ -1796,25 +1960,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="G6" s="33">
         <v>310704</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="I6" s="33" t="b">
         <v>1</v>
@@ -1829,25 +1993,25 @@
         <v>0.25</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="T6" s="33">
         <v>125</v>
@@ -1865,25 +2029,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="G7" s="33">
         <v>310704</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="I7" s="33" t="b">
         <v>1</v>
@@ -1898,25 +2062,25 @@
         <v>0.25</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="O7" s="1">
         <v>2</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="T7" s="33">
         <v>10</v>
@@ -38613,7 +38777,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:V688"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -38648,79 +38812,79 @@
   <sheetData>
     <row r="1" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="28" t="s">
+      <c r="P1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>47</v>
-      </c>
       <c r="U1" s="28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="17" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B2" s="29" t="str">
         <f>VLOOKUP(B$1,SheetRulesAndMetaData!$B$29:$F$50,2,FALSE)</f>
-        <v>Must match sample_id from the prior sheet</v>
+        <v>Must exactly match a sample_id from the Bar sheet</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>VLOOKUP(C$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
@@ -38740,72 +38904,72 @@
       </c>
       <c r="G2" s="29" t="str">
         <f>VLOOKUP(G$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>the ratio of resolution / speed between the different regions defined by the "edge" parameter</v>
       </c>
       <c r="H2" s="29" t="str">
         <f>VLOOKUP(H$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
-        <v>How many images you want per energy scan (default 'full' which is 112 images, or specify the exact number you want) or how fast you want to run in ev/sec NEXAFS (default "normal" or 0.2), radius of the spiral (default 1.8)</v>
+        <v>How many steps you want per energy scan (default 'full' which is 112 images, or specify the exact number you want) or how fast you want to run in ev/sec NEXAFS (default "normal" or 0.2), radius of the spiral (default 1.8)</v>
       </c>
       <c r="I2" s="29" t="str">
         <f>VLOOKUP(I$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">How many images you want per step.  </v>
       </c>
       <c r="J2" s="29" t="str">
         <f>VLOOKUP(J$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>eV/sec to scan NEXAFS.</v>
       </c>
       <c r="K2" s="29" t="str">
         <f>VLOOKUP(K$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>how many times to sweep energy up and back down</v>
       </c>
       <c r="L2" s="29" t="str">
         <f>VLOOKUP(L$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>diameter in mm of spiral scan extent</v>
       </c>
       <c r="M2" s="29" t="str">
         <f>VLOOKUP(M$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>step size for a spiral scan</v>
       </c>
       <c r="N2" s="29" t="str">
         <f>VLOOKUP(N$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>when specifying a polarization for a NEXAFS scan, wether the specification is relative to the sample surface or relative to the lab</v>
       </c>
       <c r="O2" s="29" t="str">
         <f>VLOOKUP(O$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>single angle or list of polarization angles to take measurement at</v>
       </c>
       <c r="P2" s="29" t="str">
         <f>VLOOKUP(P$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>angles for rotation of the sample about the vertical axis</v>
       </c>
       <c r="Q2" s="29" t="str">
         <f>VLOOKUP(Q$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>exposure time(s) in seconds for rsoxs scans and spirals</v>
       </c>
       <c r="R2" s="29" t="str">
         <f>VLOOKUP(R$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">temperature(s) to move to between / during scans. </v>
       </c>
       <c r="S2" s="29" t="str">
         <f>VLOOKUP(S$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>the temperature ramp speed deg C / min</v>
       </c>
       <c r="T2" s="29" t="str">
         <f>VLOOKUP(T$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>wait for the temperature to reach the setpoint before starting the scans or not</v>
       </c>
       <c r="U2" s="29" t="str">
         <f>VLOOKUP(U$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">which grating to use for measurements </v>
       </c>
       <c r="V2" s="29" t="str">
         <f>VLOOKUP(V$1,SheetRulesAndMetaData!$B29:$F50,2,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>high or low range for diode measurements</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="17" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B3" s="29" t="str">
         <f>VLOOKUP(B$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
@@ -38813,7 +38977,7 @@
       </c>
       <c r="C3" s="29" t="str">
         <f>VLOOKUP(C$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
-        <v>Choose from SAXS, WAXS, NEXAFS</v>
+        <v>Choose from WAXSNEXAFS, WAXS, SAXS, SAXSNEXAFS, SAXS_liquid, WAXS_liquid</v>
       </c>
       <c r="D3" s="29" t="str">
         <f>VLOOKUP(D$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
@@ -38829,23 +38993,23 @@
       </c>
       <c r="G3" s="29" t="str">
         <f>VLOOKUP(G$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>must match the number of regions defined by ratios. (length of ratios -1)  for built in ratio tables, look up the length needed</v>
       </c>
       <c r="H3" s="29" t="str">
         <f>VLOOKUP(H$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>this is only a estimate, the threshold energies will always be favored.  See the examples in the jupyter notebook, and run dry runs there to see actual numbers of exposures and experimental times</v>
       </c>
       <c r="I3" s="29" t="str">
         <f>VLOOKUP(I$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>Repeating exposures at a single step has much less overhead ~1 second than defining multiple steps at one energy ~4 seconds</v>
       </c>
       <c r="J3" s="29" t="str">
         <f>VLOOKUP(J$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>built in speeds are good starting points. 0.1 is slow (5 minutes or so for a scan)  0.3 is fast (&lt;2 minutes / scan)</v>
       </c>
       <c r="K3" s="29" t="str">
         <f>VLOOKUP(K$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>any non negative integer</v>
       </c>
       <c r="L3" s="29" t="str">
         <f>VLOOKUP(L$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
@@ -38857,48 +39021,51 @@
       </c>
       <c r="N3" s="29" t="str">
         <f>VLOOKUP(N$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>in lab frame 0 is horizontal in board, 90 vertical up
+in sample frame, 0 is normal to the sample surface (minimum possible is the grazing angle of the sample), 90 is in the plane of the sample</v>
       </c>
       <c r="O3" s="29" t="str">
         <f>VLOOKUP(O$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>-1 -&gt; circular
+-0.5 -&gt; circular counter clockwise
+0-180 -&gt; angle from horizontal (sample frame: out of plane) through vertical (sample frame: in plane)</v>
       </c>
       <c r="P3" s="29" t="str">
         <f>VLOOKUP(P$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>number or list of numbers to take scans</v>
       </c>
       <c r="Q3" s="29" t="str">
         <f>VLOOKUP(Q$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>for rsoxs scans, a more complex nomenclature is available to define exposures for certain energy ranges. See the notebook example or the wiki</v>
       </c>
       <c r="R3" s="29" t="str">
         <f>VLOOKUP(R$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>repeat the scans above for each temperature.</v>
       </c>
       <c r="S3" s="29" t="str">
         <f>VLOOKUP(S$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve"> 0.1 - 100 are valid speeds</v>
       </c>
       <c r="T3" s="29" t="str">
         <f>VLOOKUP(T$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>True/False</v>
       </c>
       <c r="U3" s="29" t="str">
         <f>VLOOKUP(U$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>rsoxs (default), 1200, 250</v>
       </c>
       <c r="V3" s="29" t="str">
         <f>VLOOKUP(V$1,SheetRulesAndMetaData!$B$29:$F$50,3,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>high, low</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="29" t="str">
+        <v>105</v>
+      </c>
+      <c r="B4" s="29">
         <f>VLOOKUP(B$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v>^</v>
+        <v>0</v>
       </c>
       <c r="C4" s="29" t="str">
         <f>VLOOKUP(C$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
@@ -38914,96 +39081,96 @@
       </c>
       <c r="F4" s="29" t="str">
         <f>VLOOKUP(F$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v>c OR 285 OR [270,280,290,400]</v>
+        <v>carbon OR 285 OR [270,280,290,400]</v>
       </c>
       <c r="G4" s="29" t="str">
         <f>VLOOKUP(G$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">5,1,5 -&gt; go through the first and last region 5 times as fast (NEXAFS) or have the energy steps 5 times more spread out (RSoXS) than the central region </v>
       </c>
       <c r="H4" s="29" t="str">
         <f>VLOOKUP(H$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>short</v>
       </c>
       <c r="I4" s="29" t="str">
         <f>VLOOKUP(I$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>5 -&gt; repeat every exposure 5 times before moving to the next energy step'</v>
       </c>
       <c r="J4" s="29" t="str">
         <f>VLOOKUP(J$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>fast</v>
       </c>
       <c r="K4" s="29" t="str">
         <f>VLOOKUP(K$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>0 -&gt; no sweeping back down</v>
       </c>
       <c r="L4" s="29" t="str">
         <f>VLOOKUP(L$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>1.5</v>
       </c>
       <c r="M4" s="29" t="str">
         <f>VLOOKUP(M$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>0.3</v>
       </c>
       <c r="N4" s="29" t="str">
         <f>VLOOKUP(N$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>20</v>
       </c>
       <c r="O4" s="29" t="str">
         <f>VLOOKUP(O$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>20,30,55,70,90</v>
       </c>
       <c r="P4" s="29" t="str">
         <f>VLOOKUP(P$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>20,40,55,70,90</v>
       </c>
       <c r="Q4" s="29" t="str">
         <f>VLOOKUP(Q$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
       <c r="R4" s="29" t="str">
         <f>VLOOKUP(R$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>120</v>
       </c>
       <c r="S4" s="29" t="str">
         <f>VLOOKUP(S$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>10</v>
       </c>
       <c r="T4" s="29" t="str">
         <f>VLOOKUP(T$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>True</v>
       </c>
       <c r="U4" s="29" t="str">
         <f>VLOOKUP(U$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>rsoxs</v>
       </c>
       <c r="V4" s="29" t="str">
         <f>VLOOKUP(V$1,SheetRulesAndMetaData!$B$29:$F$50,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>high</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="17" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="29" t="str">
+        <v>110</v>
+      </c>
+      <c r="B5" s="29">
         <f>VLOOKUP(B$1,SheetRulesAndMetaData!$B$29:$F$50,5,FALSE)</f>
-        <v>^</v>
+        <v>0</v>
       </c>
       <c r="C5" s="29" t="str">
         <f>VLOOKUP(C$1,SheetRulesAndMetaData!$B$29:$F$50,5,FALSE)</f>
-        <v>Determines which detector is used.</v>
+        <v>Determines which detector is used / slits</v>
       </c>
       <c r="D5" s="29" t="str">
         <f>VLOOKUP(D$1,SheetRulesAndMetaData!$B$29:$F$50,5,FALSE)</f>
         <v xml:space="preserve">Depending on the value of this cell, unnecessary acquisition parameters will be greyed out and locked. </v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="29" t="str">
         <f>VLOOKUP(E$1,SheetRulesAndMetaData!$B$29:$F$50,5,FALSE)</f>
-        <v>0</v>
+        <v>Normal way to sort queue steps</v>
       </c>
       <c r="F5" s="29" t="str">
         <f>VLOOKUP(F$1,SheetRulesAndMetaData!$B$29:$F$50,5,FALSE)</f>
-        <v>Current Lookup table entries are carbon edge 'c', oxygen edge 'o', fluorine. etc. Or see [LINK]</v>
+        <v>Current Lookup table entries are given here [LINK]</v>
       </c>
       <c r="G5" s="29" t="str">
         <f>VLOOKUP(G$1,SheetRulesAndMetaData!$B$29:$F$50,5,FALSE)</f>
@@ -39051,7 +39218,7 @@
       </c>
       <c r="R5" s="29" t="str">
         <f>VLOOKUP(R$1,SheetRulesAndMetaData!$B$29:$F$50,5,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>ONLY used with the TEM holder - not valid for normal sample bar</v>
       </c>
       <c r="S5" s="29" t="str">
         <f>VLOOKUP(S$1,SheetRulesAndMetaData!$B$29:$F$50,5,FALSE)</f>
@@ -39063,11 +39230,11 @@
       </c>
       <c r="U5" s="29" t="str">
         <f>VLOOKUP(U$1,SheetRulesAndMetaData!$B$29:$F$50,5,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>WARNING - moving gratings between measurements might result in loss of energy calibration</v>
       </c>
       <c r="V5" s="29" t="str">
         <f>VLOOKUP(V$1,SheetRulesAndMetaData!$B$29:$F$50,5,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>high should be used in any case where saturation might be a possibility - the majority of measurements</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -39075,19 +39242,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P6" s="4"/>
     </row>
@@ -39096,19 +39263,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H7" s="10"/>
       <c r="P7" s="4"/>
@@ -39118,13 +39285,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -39145,19 +39312,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P9" s="4"/>
     </row>
@@ -39166,19 +39333,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P10" s="4"/>
     </row>
@@ -39187,13 +39354,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -39214,13 +39381,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -39238,13 +39405,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -39265,13 +39432,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>9</v>
@@ -39292,13 +39459,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -39313,13 +39480,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>11</v>
@@ -39340,22 +39507,22 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E17">
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -39368,22 +39535,22 @@
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <v>13</v>
       </c>
       <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" t="s">
         <v>75</v>
-      </c>
-      <c r="J18" t="s">
-        <v>82</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -39396,19 +39563,19 @@
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E19">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J19">
         <v>0.05</v>
@@ -39424,19 +39591,19 @@
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -39451,22 +39618,22 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E21">
         <v>16</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P21" s="4"/>
     </row>
@@ -39475,25 +39642,25 @@
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <v>17</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P22" s="4">
         <v>20</v>
@@ -39504,25 +39671,25 @@
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E23">
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N23" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="P23" s="4"/>
     </row>
@@ -39531,23 +39698,23 @@
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E24">
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P24" s="4"/>
       <c r="R24" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S24">
         <v>10</v>
@@ -39561,23 +39728,23 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E25">
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P25" s="4"/>
       <c r="U25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -39585,19 +39752,19 @@
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E26">
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P26" s="4"/>
       <c r="U26">
@@ -39609,19 +39776,19 @@
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
         <v>62</v>
       </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E27">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P27" s="4"/>
       <c r="U27">
@@ -39633,23 +39800,23 @@
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P28" s="4"/>
       <c r="U28" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -39657,23 +39824,23 @@
         <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E29">
         <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P29" s="4"/>
       <c r="V29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
@@ -39681,23 +39848,23 @@
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P30" s="4"/>
       <c r="V30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
@@ -39705,23 +39872,23 @@
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P31" s="3"/>
       <c r="V31" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
@@ -39729,23 +39896,23 @@
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E32">
         <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P32" s="6"/>
       <c r="V32" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -39753,19 +39920,19 @@
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
         <v>62</v>
       </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E33">
         <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P33" s="4"/>
     </row>
@@ -39774,19 +39941,19 @@
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E34">
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P34" s="4"/>
     </row>
@@ -39795,19 +39962,19 @@
         <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E35">
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P35" s="4"/>
     </row>
@@ -39816,22 +39983,22 @@
         <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>31</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P36" s="4"/>
     </row>
@@ -39840,22 +40007,22 @@
         <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P37" s="4"/>
     </row>
@@ -39864,22 +40031,22 @@
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E38">
         <v>33</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P38" s="4"/>
     </row>
@@ -39888,22 +40055,22 @@
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
         <v>62</v>
       </c>
-      <c r="C39" t="s">
-        <v>68</v>
-      </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E39">
         <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H39">
         <v>5</v>
@@ -39915,22 +40082,22 @@
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E40">
         <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H40">
         <v>10</v>
@@ -39942,22 +40109,22 @@
         <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E41">
         <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H41">
         <v>20</v>
@@ -39969,22 +40136,22 @@
         <v>37</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E42">
         <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H42">
         <v>50</v>
@@ -39996,22 +40163,22 @@
         <v>38</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E43">
         <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H43">
         <v>100</v>
@@ -40023,22 +40190,22 @@
         <v>39</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E44">
         <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H44">
         <v>500</v>
@@ -40050,22 +40217,22 @@
         <v>40</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
         <v>62</v>
       </c>
-      <c r="C45" t="s">
-        <v>68</v>
-      </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E45">
         <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H45">
         <v>500</v>
@@ -40080,22 +40247,22 @@
         <v>41</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E46">
         <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O46" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P46" s="4"/>
     </row>
@@ -40104,25 +40271,25 @@
         <v>42</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E47">
         <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O47" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -40130,22 +40297,22 @@
         <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E48">
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
@@ -40153,22 +40320,22 @@
         <v>44</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E49">
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="R49" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="S49">
         <v>10</v>
@@ -40182,25 +40349,25 @@
         <v>45</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E50">
         <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P50" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="S50">
         <v>5</v>
@@ -40214,22 +40381,22 @@
         <v>46</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
         <v>62</v>
       </c>
-      <c r="C51" t="s">
-        <v>68</v>
-      </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E51">
         <v>46</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="U51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
@@ -40237,19 +40404,19 @@
         <v>47</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E52">
         <v>47</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="U52">
         <v>1200</v>
@@ -40260,19 +40427,19 @@
         <v>48</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E53">
         <v>48</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="U53">
         <v>250</v>
@@ -40283,22 +40450,22 @@
         <v>49</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E54">
         <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="V54" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
@@ -40306,22 +40473,22 @@
         <v>50</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E55">
         <v>50</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="V55" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
@@ -40329,22 +40496,22 @@
         <v>51</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E56">
         <v>51</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="V56" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
@@ -40352,19 +40519,19 @@
         <v>52</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
         <v>62</v>
       </c>
-      <c r="C57" t="s">
-        <v>68</v>
-      </c>
       <c r="D57" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E57">
         <v>52</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
@@ -40372,19 +40539,19 @@
         <v>53</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E58">
         <v>53</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O58">
         <v>90</v>
@@ -40395,19 +40562,19 @@
         <v>54</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E59">
         <v>54</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -40418,22 +40585,22 @@
         <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E60">
         <v>55</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O60" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
@@ -40441,22 +40608,22 @@
         <v>56</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E61">
         <v>56</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="R61" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
@@ -40464,19 +40631,19 @@
         <v>57</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E62">
         <v>57</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
@@ -40484,19 +40651,19 @@
         <v>58</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
         <v>62</v>
       </c>
-      <c r="C63" t="s">
-        <v>68</v>
-      </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E63">
         <v>58</v>
       </c>
       <c r="F63" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
@@ -40504,19 +40671,19 @@
         <v>59</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E64">
         <v>59</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -40524,19 +40691,19 @@
         <v>60</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E65">
         <v>60</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -40544,19 +40711,19 @@
         <v>61</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D66" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E66">
         <v>61</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -42511,13 +42678,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B514C0-9C99-41C6-BC0F-B41277EB212E}">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.7109375" customWidth="1"/>
     <col min="4" max="4" width="41.7109375" customWidth="1"/>
@@ -42528,10 +42695,10 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -42554,7 +42721,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="13"/>
@@ -42574,13 +42741,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="13"/>
@@ -42640,22 +42807,22 @@
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>117</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -42670,21 +42837,21 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
@@ -42702,21 +42869,23 @@
     </row>
     <row r="9" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="13"/>
+        <v>109</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -42732,19 +42901,19 @@
     </row>
     <row r="10" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="16"/>
@@ -42762,19 +42931,19 @@
     </row>
     <row r="11" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="16"/>
@@ -42792,19 +42961,19 @@
     </row>
     <row r="12" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="16"/>
@@ -42822,16 +42991,16 @@
     </row>
     <row r="13" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="E13" s="16">
         <v>310704</v>
@@ -42852,21 +43021,23 @@
     </row>
     <row r="14" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="13"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -42882,16 +43053,16 @@
     </row>
     <row r="15" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E15" s="13" t="b">
         <v>1</v>
@@ -42912,22 +43083,22 @@
     </row>
     <row r="16" spans="1:18" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E16" s="13" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -42944,22 +43115,22 @@
     </row>
     <row r="17" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -42976,22 +43147,22 @@
     </row>
     <row r="18" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -43008,19 +43179,19 @@
     </row>
     <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="16"/>
@@ -43038,19 +43209,19 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="16"/>
@@ -43068,21 +43239,23 @@
     </row>
     <row r="21" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E21" s="22">
         <v>1</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="22" t="s">
+        <v>166</v>
+      </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -43098,21 +43271,21 @@
     </row>
     <row r="22" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="22"/>
+        <v>142</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
+        <v>167</v>
+      </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -43128,19 +43301,19 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="16"/>
@@ -43158,21 +43331,23 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="22"/>
+        <v>54</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>168</v>
+      </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -43188,21 +43363,23 @@
     </row>
     <row r="25" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -43218,16 +43395,16 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -43246,19 +43423,21 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
@@ -43274,16 +43453,16 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -43302,23 +43481,19 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>144</v>
-      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -43332,24 +43507,24 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
@@ -43366,22 +43541,22 @@
     </row>
     <row r="31" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -43398,21 +43573,23 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E32" s="22">
         <v>2</v>
       </c>
-      <c r="F32" s="22"/>
+      <c r="F32" s="22" t="s">
+        <v>174</v>
+      </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
@@ -43428,22 +43605,22 @@
     </row>
     <row r="33" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
@@ -43458,24 +43635,24 @@
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
@@ -43490,24 +43667,24 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
@@ -43522,24 +43699,24 @@
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
@@ -43554,24 +43731,24 @@
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
@@ -43588,22 +43765,22 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
@@ -43620,22 +43797,22 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>161</v>
-      </c>
       <c r="E39" s="22" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
@@ -43652,22 +43829,22 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B40" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>161</v>
-      </c>
       <c r="E40" s="22" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
@@ -43682,24 +43859,24 @@
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
@@ -43714,24 +43891,24 @@
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
@@ -43748,22 +43925,22 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
@@ -43778,129 +43955,129 @@
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F44" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>161</v>
-      </c>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="G48" s="16"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="G49" s="16"/>
     </row>
@@ -43911,7 +44088,7 @@
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G50" s="16"/>
     </row>

--- a/example/Sample_Bar_template_v2023_1_beta.xlsx
+++ b/example/Sample_Bar_template_v2023_1_beta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brist\Documents\GitHub\rsoxs_scans\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32166031-004B-4102-A380-7C47CA048592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDA1650-CD91-4A2B-92BD-17BBA349EFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37590" yWindow="-4000" windowWidth="29730" windowHeight="14060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34290" yWindow="-7290" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -950,16 +950,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1397,9 +1397,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1775,7 +1773,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="21" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>105</v>
       </c>
@@ -1959,7 +1957,7 @@
       <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1974,22 +1972,22 @@
       <c r="F6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="31">
         <v>310704</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="33" t="b">
+      <c r="I6" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="33" t="b">
+      <c r="J6" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="31">
         <v>180</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="31">
         <v>0.25</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -2013,13 +2011,13 @@
       <c r="S6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="33">
+      <c r="T6" s="31">
         <v>125</v>
       </c>
-      <c r="U6" s="34">
+      <c r="U6" s="32">
         <v>1.2</v>
       </c>
-      <c r="V6" s="35">
+      <c r="V6" s="33">
         <f ca="1">TODAY()</f>
         <v>44932</v>
       </c>
@@ -2028,7 +2026,7 @@
       <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2043,22 +2041,22 @@
       <c r="F7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="31">
         <v>310704</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="33" t="b">
+      <c r="I7" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="33" t="b">
+      <c r="J7" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="31">
         <v>20</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="31">
         <v>0.25</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -2082,13 +2080,13 @@
       <c r="S7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="31">
         <v>10</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="32">
         <v>1.5</v>
       </c>
-      <c r="V7" s="35">
+      <c r="V7" s="33">
         <f ca="1">TODAY()</f>
         <v>44932</v>
       </c>
@@ -38777,7 +38775,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:V688"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -39148,7 +39146,7 @@
         <v>high</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="17" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>110</v>
       </c>
@@ -42694,25 +42692,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="15"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:18" ht="30.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="15"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -43976,7 +43974,7 @@
       </c>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>131</v>
       </c>
@@ -44039,7 +44037,7 @@
       </c>
       <c r="G47" s="16"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>131</v>
       </c>
